--- a/revision/complete_comparison_fcps/explore_kmeans0.xlsx
+++ b/revision/complete_comparison_fcps/explore_kmeans0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollywiberg/git/Optimal_Clustering_Trees/revision/complete_comparison_fcps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E47ADF1D-C0E3-824C-9FE1-BD5C7E1A753D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0C6E72-3FE0-924F-92DA-AF7A5FC3FB06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7060" yWindow="460" windowWidth="20560" windowHeight="15500" xr2:uid="{A11CA862-540D-904C-9F38-1D8086AEC48A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="score tables" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>Silhouette Score</t>
   </si>
@@ -64,18 +64,9 @@
     <t>Results Count</t>
   </si>
   <si>
-    <t>ICOT_local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBSCAN </t>
-  </si>
-  <si>
     <t>GMM</t>
   </si>
   <si>
-    <t xml:space="preserve">Hclust - </t>
-  </si>
-  <si>
     <t>Kmeans++</t>
   </si>
   <si>
@@ -131,6 +122,12 @@
   </si>
   <si>
     <t>Hclust</t>
+  </si>
+  <si>
+    <t>EngyTime</t>
+  </si>
+  <si>
+    <t>ICOT</t>
   </si>
 </sst>
 </file>
@@ -423,21 +420,9 @@
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -447,27 +432,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
@@ -482,6 +452,33 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -839,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC55BB4-D70B-1E4E-9FE7-07C371186A82}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19:K26"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,84 +852,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8">
         <v>5</v>
       </c>
       <c r="D3">
         <v>0.503</v>
       </c>
       <c r="E3">
-        <v>-1.2E-2</v>
+        <v>0.433</v>
       </c>
       <c r="F3">
-        <v>0.56499999999999995</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="G3">
         <v>0.59299999999999997</v>
       </c>
       <c r="H3">
-        <v>0.61399999999999999</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="I3">
-        <v>0.433</v>
-      </c>
-      <c r="J3" s="12">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="J3" s="8">
         <v>0.311</v>
       </c>
-      <c r="K3" s="13">
-        <f t="shared" ref="K3:K10" si="0">MAX(D3:I3)</f>
+      <c r="K3" s="9">
+        <f t="shared" ref="K3:K11" si="0">MAX(D3:I3)</f>
         <v>0.61399999999999999</v>
       </c>
     </row>
@@ -940,34 +935,34 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="11">
         <v>5</v>
       </c>
       <c r="D4">
         <v>0.39600000000000002</v>
       </c>
       <c r="E4">
-        <v>0.16800000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F4">
-        <v>0.40899999999999997</v>
+        <v>0.501</v>
       </c>
       <c r="G4">
         <v>0.496</v>
       </c>
       <c r="H4">
-        <v>0.501</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="I4">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J4" s="15">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="J4" s="11">
         <v>0.158</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="9">
         <f t="shared" si="0"/>
         <v>0.501</v>
       </c>
@@ -976,946 +971,1015 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="B5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="11">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>0.45300000000000001</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="E5">
-        <v>0.70199999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="F5">
-        <v>0.60799999999999998</v>
+        <v>0.438</v>
       </c>
       <c r="G5">
-        <v>0.70199999999999996</v>
+        <v>0.379</v>
       </c>
       <c r="H5">
-        <v>0.70199999999999996</v>
+        <v>0.433</v>
       </c>
       <c r="I5">
-        <v>0.33200000000000002</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="K5" s="13">
-        <f t="shared" si="0"/>
-        <v>0.70199999999999996</v>
-      </c>
+        <v>0.161</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="15">
+      <c r="B6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="11">
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.54900000000000004</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="E6">
-        <v>0.439</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="F6">
-        <v>0.53700000000000003</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="G6">
-        <v>0.55400000000000005</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="H6">
-        <v>0.56799999999999995</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="I6">
-        <v>0.53400000000000003</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0.439</v>
-      </c>
-      <c r="K6" s="13">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="K6" s="9">
         <f t="shared" si="0"/>
-        <v>0.56799999999999995</v>
+        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>0.629</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="E7">
-        <v>0.41599999999999998</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="F7">
-        <v>0.57799999999999996</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="G7">
-        <v>0.61899999999999999</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="H7">
-        <v>0.59199999999999997</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="I7">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="K7" s="13">
+        <v>0.439</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.439</v>
+      </c>
+      <c r="K7" s="9">
         <f t="shared" si="0"/>
-        <v>0.629</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="B8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="11">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>0.504</v>
+        <v>0.629</v>
       </c>
       <c r="E8">
-        <v>0.504</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="F8">
-        <v>0.504</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="G8">
-        <v>0.504</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="H8">
-        <v>0.504</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="I8">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0.504</v>
-      </c>
-      <c r="K8" s="13">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="K8" s="9">
         <f t="shared" si="0"/>
-        <v>0.504</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="B9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11">
         <v>5</v>
       </c>
       <c r="D9">
+        <v>0.504</v>
+      </c>
+      <c r="E9">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.504</v>
+      </c>
+      <c r="G9">
+        <v>0.504</v>
+      </c>
+      <c r="H9">
+        <v>0.504</v>
+      </c>
+      <c r="I9">
+        <v>0.504</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.504</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11">
+        <v>5</v>
+      </c>
+      <c r="D10">
         <v>0.48599999999999999</v>
       </c>
-      <c r="E9">
+      <c r="E10">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="I10">
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="F9">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="G9">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="H9">
+      <c r="J10" s="12">
         <v>0.48599999999999999</v>
       </c>
-      <c r="I9">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="J9" s="16">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="K9" s="13">
+      <c r="K10" s="9">
         <f t="shared" si="0"/>
         <v>0.48599999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="15">
+    <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>0.42199999999999999</v>
       </c>
-      <c r="E10">
+      <c r="E11">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="I11">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="F10">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="G10">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="H10">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="J10" s="16">
+      <c r="J11" s="12">
         <v>0.38400000000000001</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K11" s="9">
         <f t="shared" si="0"/>
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="13">
+        <f t="shared" ref="D12:I12" si="1">SUMPRODUCT(--(D3:D11=$K$3:$K$11))</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="array" ref="J12">SUM(IF(J3:J11&gt;=K3:K11,1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:J13" si="2">AVERAGE(D3:D11)</f>
+        <v>0.50166666666666659</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.39255555555555549</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5364444444444445</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.49477777777777782</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.27243333333333336</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="2"/>
+        <v>0.40855555555555556</v>
+      </c>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:J14" si="3">STDEV(D3:D11)</f>
+        <v>7.3888429405422215E-2</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>8.8777968988808492E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="3"/>
+        <v>9.0083448966931365E-2</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10075189548809672</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="3"/>
+        <v>8.0835910611834233E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25046246225732105</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="3"/>
+        <v>0.15331675635030179</v>
+      </c>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18">
-        <f>SUMPRODUCT(--(D3:D10=$K$3:$K$10))</f>
-        <v>3</v>
-      </c>
-      <c r="E11" s="18">
-        <f>SUMPRODUCT(--(E3:E10=$K$3:$K$10))</f>
-        <v>2</v>
-      </c>
-      <c r="F11" s="18">
-        <f>SUMPRODUCT(--(F3:F10=$K$3:$K$10))</f>
+      <c r="C15" s="36"/>
+      <c r="D15" s="17">
+        <f t="array" ref="D15">AVERAGE(($D$3:$D$11-D3:D11)/D3:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="array" ref="E15">AVERAGE(($D$3:$D$11-E3:E11)/E3:E11)</f>
+        <v>0.3230468613358497</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="array" ref="F15">AVERAGE(($D$3:$D$11-F3:F11)/F3:F11)</f>
+        <v>-4.5573227146541807E-2</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="array" ref="G15">AVERAGE(($D$3:$D$11-G3:G11)/G3:G11)</f>
+        <v>-1.9716668102292063E-2</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="array" ref="H15">AVERAGE(($D$3:$D$11-H3:H11)/H3:H11)</f>
+        <v>2.8213380044520477E-2</v>
+      </c>
+      <c r="I15" s="17">
+        <f t="array" ref="I15">AVERAGE(($D$3:$D$11-I3:I11)/I3:I11)</f>
+        <v>-1.6059029616028695</v>
+      </c>
+      <c r="J15" s="18">
+        <f t="array" ref="J15">AVERAGE(($D$3:$D$11-J3:J11)/J3:J11)</f>
+        <v>0.41004681055364456</v>
+      </c>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="19">
+        <f t="shared" ref="D16:J16" si="4">($D$13-D13)/D13</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="19">
+        <f t="shared" si="4"/>
+        <v>0.27795075007076142</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="4"/>
+        <v>-6.4830157415078943E-2</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" si="4"/>
+        <v>-4.9473684210526475E-2</v>
+      </c>
+      <c r="H16" s="19">
+        <f t="shared" si="4"/>
+        <v>1.3923197844149785E-2</v>
+      </c>
+      <c r="I16" s="19">
+        <f t="shared" si="4"/>
+        <v>0.8414290958032542</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" si="4"/>
+        <v>0.22790318194180018</v>
+      </c>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="18">
-        <f>SUMPRODUCT(--(G3:G10=$K$3:$K$10))</f>
-        <v>2</v>
-      </c>
-      <c r="H11" s="18">
-        <f>SUMPRODUCT(--(H3:H10=$K$3:$K$10))</f>
-        <v>7</v>
-      </c>
-      <c r="I11" s="18">
-        <f>SUMPRODUCT(--(I3:I10=$K$3:$K$10))</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="18">
-        <f t="array" ref="J11">SUM(IF(J3:J10&gt;=K3:K10,1,0))</f>
-        <v>3</v>
-      </c>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="3">
-        <f>AVERAGE(D3:D10)</f>
-        <v>0.49275000000000008</v>
-      </c>
-      <c r="E12" s="3">
-        <f>AVERAGE(E3:E10)</f>
-        <v>0.28636249999999996</v>
-      </c>
-      <c r="F12" s="3">
-        <f>AVERAGE(F3:F10)</f>
-        <v>0.50249999999999995</v>
-      </c>
-      <c r="G12" s="3">
-        <f>AVERAGE(G3:G10)</f>
-        <v>0.54637499999999994</v>
-      </c>
-      <c r="H12" s="3">
-        <f>AVERAGE(H3:H10)</f>
-        <v>0.54874999999999996</v>
-      </c>
-      <c r="I12" s="3">
-        <f>AVERAGE(I3:I10)</f>
-        <v>0.391625</v>
-      </c>
-      <c r="J12" s="22">
-        <f>AVERAGE(J3:J10)</f>
-        <v>0.40987499999999993</v>
-      </c>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="20" t="s">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="3">
-        <f>STDEV(D3:D10)</f>
-        <v>7.3631806015761844E-2</v>
-      </c>
-      <c r="E13" s="3">
-        <f>STDEV(E3:E10)</f>
-        <v>0.2640027052756414</v>
-      </c>
-      <c r="F13" s="3">
-        <f>STDEV(F3:F10)</f>
-        <v>8.2792339190117442E-2</v>
-      </c>
-      <c r="G13" s="3">
-        <f>STDEV(G3:G10)</f>
-        <v>8.9686656914902546E-2</v>
-      </c>
-      <c r="H13" s="3">
-        <f>STDEV(H3:H10)</f>
-        <v>8.7845237288573505E-2</v>
-      </c>
-      <c r="I13" s="3">
-        <f>STDEV(I3:I10)</f>
-        <v>9.4860706150800916E-2</v>
-      </c>
-      <c r="J13" s="22">
-        <f>STDEV(J3:J10)</f>
-        <v>0.16384787151501262</v>
-      </c>
-      <c r="K13" s="23"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="24">
-        <f t="array" ref="D14">AVERAGE(($D$3:$D$10-D3:D10)/D3:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="24">
-        <f t="array" ref="E14">AVERAGE(($D$3:$D$10-E3:E10)/E3:E10)</f>
-        <v>-2.1265166082007436</v>
-      </c>
-      <c r="F14" s="24">
-        <f t="array" ref="F14">AVERAGE(($D$3:$D$10-F3:F10)/F3:F10)</f>
-        <v>-8.67565183790521E-3</v>
-      </c>
-      <c r="G14" s="24">
-        <f t="array" ref="G14">AVERAGE(($D$3:$D$10-G3:G10)/G3:G10)</f>
-        <v>-8.6165420480513913E-2</v>
-      </c>
-      <c r="H14" s="24">
-        <f t="array" ref="H14">AVERAGE(($D$3:$D$10-H3:H10)/H3:H10)</f>
-        <v>-8.9797277800133482E-2</v>
-      </c>
-      <c r="I14" s="24">
-        <f t="array" ref="I14">AVERAGE(($D$3:$D$10-I3:I10)/I3:I10)</f>
-        <v>0.30936521900283093</v>
-      </c>
-      <c r="J14" s="25">
-        <f t="array" ref="J14">AVERAGE(($D$3:$D$10-J3:J10)/J3:J10)</f>
-        <v>0.40634035031506116</v>
-      </c>
-      <c r="K14" s="23"/>
-    </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28">
-        <f t="shared" ref="D15:J15" si="1">($D$12-D12)/D12</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="28">
-        <f t="shared" si="1"/>
-        <v>0.72072111397267502</v>
-      </c>
-      <c r="F15" s="28">
-        <f t="shared" si="1"/>
-        <v>-1.9402985074626608E-2</v>
-      </c>
-      <c r="G15" s="28">
-        <f t="shared" si="1"/>
-        <v>-9.8146877144817887E-2</v>
-      </c>
-      <c r="H15" s="28">
-        <f t="shared" si="1"/>
-        <v>-0.10205011389521619</v>
-      </c>
-      <c r="I15" s="28">
-        <f t="shared" si="1"/>
-        <v>0.25821895946377293</v>
-      </c>
-      <c r="J15" s="29">
-        <f t="shared" si="1"/>
-        <v>0.20219579139981739</v>
-      </c>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="J19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19" s="33">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="E19" s="34">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="F19" s="34">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="G19" s="34">
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="H19" s="34">
-        <v>5.21E-2</v>
-      </c>
-      <c r="I19" s="35">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="J19" s="36">
-        <v>0.371</v>
-      </c>
-      <c r="K19" s="13">
-        <f t="shared" ref="K19:K26" si="2">MAX(D19:I19)</f>
-        <v>0.13700000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" s="37">
-        <v>2.7699999999999999E-2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1.61E-2</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3.73E-2</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="I20" s="22">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="J20" s="38">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="K20" s="13">
-        <f t="shared" si="2"/>
-        <v>0.26500000000000001</v>
+      <c r="D20" s="24">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E20" s="25">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="F20" s="25">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="G20" s="25">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="H20" s="25">
+        <v>5.21E-2</v>
+      </c>
+      <c r="I20" s="26">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="J20" s="27">
+        <v>0.371</v>
+      </c>
+      <c r="K20" s="9">
+        <f t="shared" ref="K20:K28" si="5">MAX(D20:I20)</f>
+        <v>0.13700000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C21">
         <v>5</v>
       </c>
-      <c r="D21" s="37">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1.08</v>
-      </c>
-      <c r="I21" s="22">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="J21" s="39">
-        <v>1.08</v>
-      </c>
-      <c r="K21" s="13">
-        <f t="shared" si="2"/>
-        <v>1.08</v>
+      <c r="D21" s="28">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.61E-2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3.73E-2</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="I21" s="15">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="J21" s="29">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="5"/>
+        <v>0.26500000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
         <v>4</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22" s="37">
-        <v>7.7100000000000002E-2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="G22" s="3">
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="H22" s="3">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="I22" s="22">
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="J22" s="38">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="K22" s="13">
-        <f t="shared" si="2"/>
-        <v>0.11700000000000001</v>
+      <c r="D22" s="28">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>4.2500000000000003E-3</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.38E-2</v>
+      </c>
+      <c r="H22" s="2">
+        <v>4.4799999999999996E-3</v>
+      </c>
+      <c r="I22" s="15">
+        <v>2.3400000000000001E-3</v>
+      </c>
+      <c r="J22" s="30">
+        <v>2.5900000000000001E-4</v>
+      </c>
+      <c r="K22" s="9">
+        <f t="shared" si="5"/>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" s="37">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.113</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="I23" s="22">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="J23" s="38">
-        <v>0.253</v>
-      </c>
-      <c r="K23" s="13">
-        <f t="shared" si="2"/>
-        <v>0.55000000000000004</v>
+      <c r="D23" s="28">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="J23" s="29">
+        <v>1.08</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="5"/>
+        <v>1.08</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
-      <c r="D24" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I24" s="22">
-        <v>4.41E-2</v>
-      </c>
-      <c r="J24" s="39">
-        <v>0.2</v>
-      </c>
-      <c r="K24" s="13">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
+      <c r="D24" s="28">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="G24" s="2">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="I24" s="15">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="J24" s="29">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K24" s="9">
+        <f t="shared" si="5"/>
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>7</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
-      <c r="D25" s="37">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="F25" s="3">
-        <v>2.0799999999999999E-2</v>
-      </c>
-      <c r="G25" s="3">
-        <v>4.8599999999999997E-2</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="I25" s="22">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="J25" s="38">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="K25" s="13">
-        <f t="shared" si="2"/>
-        <v>4.8599999999999997E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="28">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.113</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="I25" s="15">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="J25" s="30">
+        <v>0.253</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>8</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="15">
+        <v>4.41E-2</v>
+      </c>
+      <c r="J26" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="K26" s="9">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" s="28">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="I27" s="15">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J27" s="29">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K27" s="9">
+        <f t="shared" si="5"/>
+        <v>4.8599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" s="28">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E28" s="2">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F28" s="2">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G28" s="2">
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H28" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I28" s="15">
         <v>2.01E-2</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J28" s="30">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="K26" s="13">
-        <f t="shared" si="2"/>
+      <c r="K28" s="9">
+        <f t="shared" si="5"/>
         <v>6.3299999999999995E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="13">
+        <f t="shared" ref="D29:I29" si="6">SUMPRODUCT(--(D20:D28=$K$20:$K$28))</f>
+        <v>5</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G29" s="13">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <f t="array" ref="J29">SUM(IF(J20:J28&gt;=K20:K28,1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="2">
+        <f t="shared" ref="D30:J30" si="7">AVERAGE(D20:D28)</f>
+        <v>0.16884444444444446</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="7"/>
+        <v>0.20423333333333332</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="7"/>
+        <v>0.11313888888888887</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="7"/>
+        <v>0.23708888888888893</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="7"/>
+        <v>0.16743111111111111</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="7"/>
+        <v>3.7293333333333338E-2</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="7"/>
+        <v>0.26350655555555558</v>
+      </c>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31:J31" si="8">STDEV(D20:D28)</f>
+        <v>0.17636922287569845</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="8"/>
+        <v>0.34086803531572163</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="8"/>
+        <v>0.15283417847821579</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="8"/>
+        <v>0.35754133832483076</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="8"/>
+        <v>0.34704513713796814</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="8"/>
+        <v>4.8411247660022153E-2</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="8"/>
+        <v>0.33006317836404869</v>
+      </c>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18">
-        <f>SUMPRODUCT(--(D19:D26=$K$19:$K$26))</f>
-        <v>4</v>
-      </c>
-      <c r="E27" s="18">
-        <f>SUMPRODUCT(--(E19:E26=$K$19:$K$26))</f>
-        <v>4</v>
-      </c>
-      <c r="F27" s="18">
-        <f>SUMPRODUCT(--(F19:F26=$K$19:$K$26))</f>
-        <v>2</v>
-      </c>
-      <c r="G27" s="18">
-        <f>SUMPRODUCT(--(G19:G26=$K$19:$K$26))</f>
-        <v>4</v>
-      </c>
-      <c r="H27" s="18">
-        <f>SUMPRODUCT(--(H19:H26=$K$19:$K$26))</f>
-        <v>2</v>
-      </c>
-      <c r="I27" s="18">
-        <f>SUMPRODUCT(--(I19:I26=$K$19:$K$26))</f>
+      <c r="C32" s="36"/>
+      <c r="D32" s="17">
+        <f t="array" ref="D32">AVERAGE(($D$20:$D$28-D20:D28)/D20:D28)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="18">
-        <f t="array" ref="J27">SUM(IF(J19:J26&gt;=K19:K26,1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K27" s="23"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="20" t="s">
+      <c r="E32" s="17">
+        <f t="array" ref="E32">AVERAGE(($D$20:$D$28-E20:E28)/E20:E28)</f>
+        <v>2.0715378035698677</v>
+      </c>
+      <c r="F32" s="17">
+        <f t="array" ref="F32">AVERAGE(($D$20:$D$28-F20:F28)/F20:F28)</f>
+        <v>2.6275122121252594</v>
+      </c>
+      <c r="G32" s="17">
+        <f t="array" ref="G32">AVERAGE(($D$20:$D$28-G20:G28)/G20:G28)</f>
+        <v>0.42755764667545865</v>
+      </c>
+      <c r="H32" s="17">
+        <f t="array" ref="H32">AVERAGE(($D$20:$D$28-H20:H28)/H20:H28)</f>
+        <v>3.8580421925339814</v>
+      </c>
+      <c r="I32" s="17">
+        <f t="array" ref="I32">AVERAGE(($D$20:$D$28-I20:I28)/I20:I28)</f>
+        <v>9.770320247970723</v>
+      </c>
+      <c r="J32" s="17">
+        <f t="array" ref="J32">AVERAGE(($D$20:$D$28-J20:J28)/J20:J28)</f>
+        <v>27.302084814290172</v>
+      </c>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="3">
-        <f>AVERAGE(D19:D26)</f>
-        <v>0.18195</v>
-      </c>
-      <c r="E28" s="3">
-        <f>AVERAGE(E19:E26)</f>
-        <v>0.22844999999999999</v>
-      </c>
-      <c r="F28" s="3">
-        <f>AVERAGE(F19:F26)</f>
-        <v>0.12675</v>
-      </c>
-      <c r="G28" s="3">
-        <f>AVERAGE(G19:G26)</f>
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="H28" s="3">
-        <f>AVERAGE(H19:H26)</f>
-        <v>0.18779999999999999</v>
-      </c>
-      <c r="I28" s="3">
-        <f>AVERAGE(I19:I26)</f>
-        <v>4.1662500000000005E-2</v>
-      </c>
-      <c r="J28" s="3">
-        <f>AVERAGE(J19:J26)</f>
-        <v>0.29641250000000002</v>
-      </c>
-      <c r="K28" s="23"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="3">
-        <f>STDEV(D19:D26)</f>
-        <v>0.18380207522534361</v>
-      </c>
-      <c r="E29" s="3">
-        <f>STDEV(E19:E26)</f>
-        <v>0.35603048826108785</v>
-      </c>
-      <c r="F29" s="3">
-        <f>STDEV(F19:F26)</f>
-        <v>0.15744722471808947</v>
-      </c>
-      <c r="G29" s="3">
-        <f>STDEV(G19:G26)</f>
-        <v>0.37159815084885139</v>
-      </c>
-      <c r="H29" s="3">
-        <f>STDEV(H19:H26)</f>
-        <v>0.36521039337424588</v>
-      </c>
-      <c r="I29" s="3">
-        <f>STDEV(I19:I26)</f>
-        <v>4.982073399413426E-2</v>
-      </c>
-      <c r="J29" s="22">
-        <f>STDEV(J19:J26)</f>
-        <v>0.3367007846632632</v>
-      </c>
-      <c r="K29" s="23"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="24">
-        <f t="array" ref="D30">AVERAGE(($D$19:$D$26-D19:D26)/D19:D26)</f>
+      <c r="C33" s="38"/>
+      <c r="D33" s="19">
+        <f t="shared" ref="D33:J33" si="9">($D$30-D30)/D30</f>
         <v>0</v>
       </c>
-      <c r="E30" s="24">
-        <f t="array" ref="E30">AVERAGE(($D$19:$D$26-E19:E26)/E19:E26)</f>
-        <v>1.6935752671113395</v>
-      </c>
-      <c r="F30" s="24">
-        <f t="array" ref="F30">AVERAGE(($D$19:$D$26-F19:F26)/F19:F26)</f>
-        <v>1.1985982974644469</v>
-      </c>
-      <c r="G30" s="24">
-        <f t="array" ref="G30">AVERAGE(($D$19:$D$26-G19:G26)/G19:G26)</f>
-        <v>2.6292207582354732E-2</v>
-      </c>
-      <c r="H30" s="24">
-        <f t="array" ref="H30">AVERAGE(($D$19:$D$26-H19:H26)/H19:H26)</f>
-        <v>2.6795831808864441</v>
-      </c>
-      <c r="I30" s="24">
-        <f t="array" ref="I30">AVERAGE(($D$19:$D$26-I19:I26)/I19:I26)</f>
-        <v>7.697806860163646</v>
-      </c>
-      <c r="J30" s="24">
-        <f t="array" ref="J30">AVERAGE(($D$19:$D$26-J19:J26)/J19:J26)</f>
-        <v>-4.8185471954442394E-2</v>
-      </c>
-      <c r="K30" s="23"/>
-    </row>
-    <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28">
-        <f t="shared" ref="D31:J31" si="3">($D$28-D28)/D28</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="28">
-        <f t="shared" si="3"/>
-        <v>-0.20354563361785943</v>
-      </c>
-      <c r="F31" s="28">
-        <f t="shared" si="3"/>
-        <v>0.43550295857988164</v>
-      </c>
-      <c r="G31" s="28">
-        <f t="shared" si="3"/>
-        <v>-0.31339622641509435</v>
-      </c>
-      <c r="H31" s="28">
-        <f t="shared" si="3"/>
-        <v>-3.1150159744408917E-2</v>
-      </c>
-      <c r="I31" s="28">
-        <f t="shared" si="3"/>
-        <v>3.367236723672367</v>
-      </c>
-      <c r="J31" s="28">
-        <f t="shared" si="3"/>
-        <v>-0.38615949057479027</v>
-      </c>
-      <c r="K31" s="30"/>
+      <c r="E33" s="19">
+        <f t="shared" si="9"/>
+        <v>-0.1732767531690331</v>
+      </c>
+      <c r="F33" s="19">
+        <f t="shared" si="9"/>
+        <v>0.49236435060152262</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" si="9"/>
+        <v>-0.28784328428156347</v>
+      </c>
+      <c r="H33" s="19">
+        <f t="shared" si="9"/>
+        <v>8.4412826502443111E-3</v>
+      </c>
+      <c r="I33" s="19">
+        <f t="shared" si="9"/>
+        <v>3.5274699082350134</v>
+      </c>
+      <c r="J33" s="19">
+        <f t="shared" si="9"/>
+        <v>-0.35924006107374934</v>
+      </c>
+      <c r="K33" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
-  <conditionalFormatting sqref="D32:I36 D14:J16 D27:J27 D30:J31 J11 D3:I11 P3:P10 D19:I26">
+  <conditionalFormatting sqref="D34:I38 D15:J17 D29:J29 D32:J33 J12 D3:I12 P3:P11 D20:I28">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND(D3&lt;&gt;0,D3=$K3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C26">
+  <conditionalFormatting sqref="C20:C28">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C10">
+  <conditionalFormatting sqref="C3:C11">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:I11 K11">
+  <conditionalFormatting sqref="D12:I12 K12">
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>AND(D11&lt;&gt;0,D11=$K12)</formula>
+      <formula>AND(D12&lt;&gt;0,D12=$K13)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1933,16 +1997,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -1974,18 +2038,18 @@
       <c r="C3">
         <v>0.503</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <f>(C3-B3)/B3</f>
         <v>-3.4548944337811929E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>0.13700000000000001</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>0.13700000000000001</v>
       </c>
-      <c r="G3" s="2">
-        <f>(F3-E3)/E3</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G10" si="0">(F3-E3)/E3</f>
         <v>0</v>
       </c>
     </row>
@@ -1996,18 +2060,18 @@
       <c r="C4">
         <v>0.39600000000000002</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D10" si="0">(C4-B4)/B4</f>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D10" si="1">(C4-B4)/B4</f>
         <v>1.2787723785166251E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="G4" s="2">
-        <f>(F4-E4)/E4</f>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
         <v>-0.12618296529968456</v>
       </c>
     </row>
@@ -2018,18 +2082,18 @@
       <c r="C5">
         <v>0.45300000000000001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.3956043956043991E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>-4.3956043956043991E-3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="G5" s="2">
-        <f>(F5-E5)/E5</f>
         <v>0</v>
       </c>
     </row>
@@ -2040,18 +2104,18 @@
       <c r="C6">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.1746031746031585E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>-3.1746031746031585E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="F6" s="3">
-        <v>7.7100000000000002E-2</v>
-      </c>
-      <c r="G6" s="2">
-        <f>(F6-E6)/E6</f>
         <v>-0.34102564102564104</v>
       </c>
     </row>
@@ -2062,18 +2126,18 @@
       <c r="C7">
         <v>0.629</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G7" s="2">
-        <f>(F7-E7)/E7</f>
         <v>0.51933701657458575</v>
       </c>
     </row>
@@ -2084,18 +2148,18 @@
       <c r="C8">
         <v>0.504</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="2">
-        <f>(F8-E8)/E8</f>
         <v>0</v>
       </c>
     </row>
@@ -2106,18 +2170,18 @@
       <c r="C9">
         <v>0.48599999999999999</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="G9" s="2">
-        <f>(F9-E9)/E9</f>
         <v>0</v>
       </c>
     </row>
@@ -2128,18 +2192,18 @@
       <c r="C10">
         <v>0.42199999999999999</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9408866995073788E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>3.9408866995073788E-2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <f>(F10-E10)/E10</f>
         <v>0</v>
       </c>
     </row>
@@ -2147,28 +2211,28 @@
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f>AVERAGE(B3:B10)</f>
         <v>0.49487500000000001</v>
       </c>
-      <c r="C11" s="3">
-        <f t="shared" ref="C11:E11" si="1">AVERAGE(C3:C10)</f>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:E11" si="2">AVERAGE(C3:C10)</f>
         <v>0.49275000000000008</v>
       </c>
-      <c r="D11" s="4">
-        <f t="shared" si="1"/>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
         <v>-2.3117487124009843E-3</v>
       </c>
-      <c r="E11" s="3">
-        <f t="shared" si="1"/>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
         <v>0.16393750000000001</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f>AVERAGE(F3:F10)</f>
         <v>0.18195</v>
       </c>
-      <c r="G11" s="4">
-        <f t="shared" ref="G11" si="2">AVERAGE(G3:G10)</f>
+      <c r="G11" s="3">
+        <f t="shared" ref="G11" si="3">AVERAGE(G3:G10)</f>
         <v>6.5160512811575227E-3</v>
       </c>
     </row>

--- a/revision/complete_comparison_fcps/explore_kmeans0.xlsx
+++ b/revision/complete_comparison_fcps/explore_kmeans0.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollywiberg/git/Optimal_Clustering_Trees/revision/complete_comparison_fcps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0C6E72-3FE0-924F-92DA-AF7A5FC3FB06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC435FF-EC86-F142-9163-5F4098609D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="460" windowWidth="20560" windowHeight="15500" xr2:uid="{A11CA862-540D-904C-9F38-1D8086AEC48A}"/>
+    <workbookView xWindow="2180" yWindow="460" windowWidth="25960" windowHeight="16160" xr2:uid="{A11CA862-540D-904C-9F38-1D8086AEC48A}"/>
   </bookViews>
   <sheets>
     <sheet name="score tables" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="runtime tables" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,38 +32,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
-  <si>
-    <t>Silhouette Score</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="37">
   <si>
     <t>Dunn Index</t>
   </si>
   <si>
-    <t>Baseline Score</t>
-  </si>
-  <si>
-    <t>Fully Scaled Score</t>
-  </si>
-  <si>
-    <t>Score Change</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Silhouette</t>
   </si>
   <si>
     <t>Data</t>
   </si>
   <si>
-    <t>Results Count</t>
-  </si>
-  <si>
     <t>GMM</t>
   </si>
   <si>
@@ -128,6 +107,42 @@
   </si>
   <si>
     <t>ICOT</t>
+  </si>
+  <si>
+    <t>(800@2)</t>
+  </si>
+  <si>
+    <t>(1000@2)</t>
+  </si>
+  <si>
+    <t>(4096@2)</t>
+  </si>
+  <si>
+    <t>(212@3)</t>
+  </si>
+  <si>
+    <t>(400@2)</t>
+  </si>
+  <si>
+    <t>(770@2)</t>
+  </si>
+  <si>
+    <t>(400@3)</t>
+  </si>
+  <si>
+    <t>(1070@2)</t>
+  </si>
+  <si>
+    <t>(N,P)</t>
+  </si>
+  <si>
+    <t>Average Runtime</t>
+  </si>
+  <si>
+    <t>Std. Dev. Runtime</t>
+  </si>
+  <si>
+    <t>Dunn</t>
   </si>
 </sst>
 </file>
@@ -188,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -383,19 +398,6 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -405,11 +407,37 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
         <color theme="1"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -418,11 +446,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -430,8 +456,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -448,10 +472,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,9 +480,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -479,20 +497,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="17" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="10">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -503,6 +544,66 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -836,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC55BB4-D70B-1E4E-9FE7-07C371186A82}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="B1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,59 +952,58 @@
     <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
-    </row>
-    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="8">
-        <v>5</v>
+      <c r="C3" t="s">
+        <v>25</v>
       </c>
       <c r="D3">
         <v>0.503</v>
@@ -912,7 +1012,7 @@
         <v>0.433</v>
       </c>
       <c r="F3">
-        <v>0.61399999999999999</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="G3">
         <v>0.59299999999999997</v>
@@ -921,25 +1021,22 @@
         <v>0.56499999999999995</v>
       </c>
       <c r="I3">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="J3" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="J3" s="6">
         <v>0.311</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="7">
         <f t="shared" ref="K3:K11" si="0">MAX(D3:I3)</f>
-        <v>0.61399999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="11">
-        <v>5</v>
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
       </c>
       <c r="D4">
         <v>0.39600000000000002</v>
@@ -948,7 +1045,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F4">
-        <v>0.501</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="G4">
         <v>0.496</v>
@@ -957,25 +1054,22 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="I4">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="J4" s="11">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="J4" s="38">
         <v>0.158</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="36">
         <f t="shared" si="0"/>
-        <v>0.501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="11">
-        <v>5</v>
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
       </c>
       <c r="D5">
         <v>0.57299999999999995</v>
@@ -984,7 +1078,7 @@
         <v>0.4</v>
       </c>
       <c r="F5">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="G5">
         <v>0.379</v>
@@ -993,22 +1087,22 @@
         <v>0.433</v>
       </c>
       <c r="I5">
-        <v>0.161</v>
-      </c>
-      <c r="J5" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="J5" s="38">
         <v>0.39800000000000002</v>
       </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="11">
-        <v>5</v>
+      <c r="K5" s="36">
+        <f t="shared" si="0"/>
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
       </c>
       <c r="D6">
         <v>0.45300000000000001</v>
@@ -1028,23 +1122,20 @@
       <c r="I6">
         <v>0.70199999999999996</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="39">
         <v>0.70199999999999996</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="36">
         <f t="shared" si="0"/>
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="11">
-        <v>5</v>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
       </c>
       <c r="D7">
         <v>0.54900000000000004</v>
@@ -1053,7 +1144,7 @@
         <v>0.53400000000000003</v>
       </c>
       <c r="F7">
-        <v>0.56799999999999995</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="G7">
         <v>0.55400000000000005</v>
@@ -1064,23 +1155,20 @@
       <c r="I7">
         <v>0.439</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7">
         <v>0.439</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="36">
         <f t="shared" si="0"/>
-        <v>0.56799999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11">
-        <v>5</v>
+        <v>0.56899999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
       </c>
       <c r="D8">
         <v>0.629</v>
@@ -1089,7 +1177,7 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="F8">
-        <v>0.59199999999999997</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="G8">
         <v>0.61899999999999999</v>
@@ -1098,25 +1186,22 @@
         <v>0.57799999999999996</v>
       </c>
       <c r="I8">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="J8" s="11">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="J8" s="38">
         <v>0.29499999999999998</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="36">
         <f t="shared" si="0"/>
         <v>0.629</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="11">
-        <v>5</v>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
       </c>
       <c r="D9">
         <v>0.504</v>
@@ -1136,23 +1221,20 @@
       <c r="I9">
         <v>0.504</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="39">
         <v>0.504</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="36">
         <f t="shared" si="0"/>
         <v>0.504</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="11">
-        <v>5</v>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
       </c>
       <c r="D10">
         <v>0.48599999999999999</v>
@@ -1170,25 +1252,22 @@
         <v>0.41199999999999998</v>
       </c>
       <c r="I10">
-        <v>4.7300000000000002E-2</v>
-      </c>
-      <c r="J10" s="12">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="J10" s="39">
         <v>0.48599999999999999</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="36">
         <f t="shared" si="0"/>
         <v>0.48599999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="11">
-        <v>5</v>
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
       </c>
       <c r="D11">
         <v>0.42199999999999999</v>
@@ -1197,7 +1276,7 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="F11">
-        <v>0.42299999999999999</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="G11">
         <v>0.41799999999999998</v>
@@ -1206,780 +1285,747 @@
         <v>0.40699999999999997</v>
       </c>
       <c r="I11">
-        <v>2.6599999999999999E-2</v>
-      </c>
-      <c r="J11" s="12">
         <v>0.38400000000000001</v>
       </c>
-      <c r="K11" s="9">
+      <c r="J11">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="K11" s="37">
         <f t="shared" si="0"/>
-        <v>0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="13">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="9">
         <f t="shared" ref="D12:I12" si="1">SUMPRODUCT(--(D3:D11=$K$3:$K$11))</f>
-        <v>3</v>
-      </c>
-      <c r="E12" s="13">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="9">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="G12" s="13">
+        <v>6</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H12" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="J12" s="9">
         <f t="array" ref="J12">SUM(IF(J3:J11&gt;=K3:K11,1,0))</f>
-        <v>4</v>
-      </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="1">
         <f t="shared" ref="D13:J13" si="2">AVERAGE(D3:D11)</f>
         <v>0.50166666666666659</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <f t="shared" si="2"/>
         <v>0.39255555555555549</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <f t="shared" si="2"/>
-        <v>0.5364444444444445</v>
-      </c>
-      <c r="G13" s="2">
+        <v>0.53433333333333333</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="2"/>
         <v>0.52777777777777779</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <f t="shared" si="2"/>
         <v>0.49477777777777782</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <f t="shared" si="2"/>
-        <v>0.27243333333333336</v>
-      </c>
-      <c r="J13" s="15">
+        <v>0.46388888888888885</v>
+      </c>
+      <c r="J13" s="11">
         <f t="shared" si="2"/>
         <v>0.40855555555555556</v>
       </c>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="2">
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="1">
         <f t="shared" ref="D14:J14" si="3">STDEV(D3:D11)</f>
         <v>7.3888429405422215E-2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <f t="shared" si="3"/>
         <v>8.8777968988808492E-2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>9.0083448966931365E-2</v>
-      </c>
-      <c r="G14" s="2">
+        <v>9.0675244692252979E-2</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="3"/>
         <v>0.10075189548809672</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <f t="shared" si="3"/>
         <v>8.0835910611834233E-2</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <f t="shared" si="3"/>
-        <v>0.25046246225732105</v>
-      </c>
-      <c r="J14" s="15">
+        <v>0.12582472376727516</v>
+      </c>
+      <c r="J14" s="11">
         <f t="shared" si="3"/>
         <v>0.15331675635030179</v>
       </c>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="17">
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="13">
         <f t="array" ref="D15">AVERAGE(($D$3:$D$11-D3:D11)/D3:D11)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="13">
         <f t="array" ref="E15">AVERAGE(($D$3:$D$11-E3:E11)/E3:E11)</f>
         <v>0.3230468613358497</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="13">
         <f t="array" ref="F15">AVERAGE(($D$3:$D$11-F3:F11)/F3:F11)</f>
-        <v>-4.5573227146541807E-2</v>
-      </c>
-      <c r="G15" s="17">
+        <v>-4.2592171169101169E-2</v>
+      </c>
+      <c r="G15" s="13">
         <f t="array" ref="G15">AVERAGE(($D$3:$D$11-G3:G11)/G3:G11)</f>
         <v>-1.9716668102292063E-2</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="13">
         <f t="array" ref="H15">AVERAGE(($D$3:$D$11-H3:H11)/H3:H11)</f>
         <v>2.8213380044520477E-2</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="13">
         <f t="array" ref="I15">AVERAGE(($D$3:$D$11-I3:I11)/I3:I11)</f>
-        <v>-1.6059029616028695</v>
-      </c>
-      <c r="J15" s="18">
+        <v>0.1462295229486327</v>
+      </c>
+      <c r="J15" s="14">
         <f t="array" ref="J15">AVERAGE(($D$3:$D$11-J3:J11)/J3:J11)</f>
         <v>0.41004681055364456</v>
       </c>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="19">
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="15">
         <f t="shared" ref="D16:J16" si="4">($D$13-D13)/D13</f>
         <v>0</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="15">
         <f t="shared" si="4"/>
         <v>0.27795075007076142</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="15">
         <f t="shared" si="4"/>
-        <v>-6.4830157415078943E-2</v>
-      </c>
-      <c r="G16" s="19">
+        <v>-6.1135371179039423E-2</v>
+      </c>
+      <c r="G16" s="15">
         <f t="shared" si="4"/>
         <v>-4.9473684210526475E-2</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="15">
         <f t="shared" si="4"/>
         <v>1.3923197844149785E-2</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="15">
         <f t="shared" si="4"/>
-        <v>0.8414290958032542</v>
-      </c>
-      <c r="J16" s="20">
+        <v>8.1437125748502925E-2</v>
+      </c>
+      <c r="J16" s="16">
         <f t="shared" si="4"/>
         <v>0.22790318194180018</v>
       </c>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-    </row>
-    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E20" s="21">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="F20" s="21">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G20" s="21">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="H20" s="21">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="I20" s="22">
+        <v>0.371</v>
+      </c>
+      <c r="J20" s="32">
+        <v>0.371</v>
+      </c>
+      <c r="K20" s="35">
+        <f t="shared" ref="K20:K28" si="5">MAX(D20:I20)</f>
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20" s="24">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="E20" s="25">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="F20" s="25">
-        <v>4.7699999999999999E-2</v>
-      </c>
-      <c r="G20" s="25">
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="H20" s="25">
-        <v>5.21E-2</v>
-      </c>
-      <c r="I20" s="26">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="J20" s="27">
-        <v>0.371</v>
-      </c>
-      <c r="K20" s="9">
-        <f t="shared" ref="K20:K28" si="5">MAX(D20:I20)</f>
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21" s="28">
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="23">
         <v>2.7699999999999999E-2</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3.73E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.61E-2</v>
+      </c>
+      <c r="I21" s="11">
         <v>0.26500000000000001</v>
       </c>
-      <c r="F21" s="2">
-        <v>1.61E-2</v>
-      </c>
-      <c r="G21" s="2">
-        <v>3.73E-2</v>
-      </c>
-      <c r="H21" s="2">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="I21" s="15">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="J21" s="29">
+      <c r="J21" s="33">
         <v>0.26500000000000001</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="36">
         <f t="shared" si="5"/>
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22" s="28">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="23">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="E22" s="2">
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="F22" s="2">
-        <v>4.2500000000000003E-3</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="E22" s="1">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5.11E-3</v>
+      </c>
+      <c r="G22" s="1">
         <v>1.38E-2</v>
       </c>
-      <c r="H22" s="2">
-        <v>4.4799999999999996E-3</v>
-      </c>
-      <c r="I22" s="15">
-        <v>2.3400000000000001E-3</v>
-      </c>
-      <c r="J22" s="30">
+      <c r="H22" s="1">
+        <v>4.4200000000000003E-3</v>
+      </c>
+      <c r="I22" s="11">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="J22" s="34">
         <v>2.5900000000000001E-4</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="36">
         <f t="shared" si="5"/>
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23" s="28">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="23">
         <v>0.35699999999999998</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F23" s="1">
         <v>1.08</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="H23" s="1">
         <v>0.48199999999999998</v>
       </c>
-      <c r="G23" s="2">
+      <c r="I23" s="11">
         <v>1.08</v>
       </c>
-      <c r="H23" s="2">
+      <c r="J23" s="33">
         <v>1.08</v>
       </c>
-      <c r="I23" s="15">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="J23" s="29">
-        <v>1.08</v>
-      </c>
-      <c r="K23" s="9">
+      <c r="K23" s="36">
         <f t="shared" si="5"/>
         <v>1.08</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24" s="28">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="23">
         <v>7.7100000000000002E-2</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="H24" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="F24" s="2">
+      <c r="I24" s="11">
         <v>0.11700000000000001</v>
       </c>
-      <c r="G24" s="2">
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="H24" s="2">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="I24" s="15">
-        <v>2.6499999999999999E-2</v>
-      </c>
-      <c r="J24" s="29">
+      <c r="J24" s="33">
         <v>0.11700000000000001</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="36">
         <f t="shared" si="5"/>
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25" s="28">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="23">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="I25" s="11">
         <v>0.11700000000000001</v>
       </c>
-      <c r="F25" s="2">
-        <v>0.113</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H25" s="2">
-        <v>2.8799999999999999E-2</v>
-      </c>
-      <c r="I25" s="15">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="J25" s="30">
+      <c r="J25" s="34">
         <v>0.253</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="36">
         <f t="shared" si="5"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>7</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26" s="28">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="23">
         <v>0.2</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
+        <v>4.41E-2</v>
+      </c>
+      <c r="F26" s="1">
         <v>0.2</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="1">
         <v>0.2</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="1">
         <v>0.2</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="11">
         <v>0.2</v>
       </c>
-      <c r="I26" s="15">
-        <v>4.41E-2</v>
-      </c>
-      <c r="J26" s="29">
+      <c r="J26" s="33">
         <v>0.2</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="36">
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>8</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27" s="28">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="23">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="E27" s="2">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="E27" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="H27" s="1">
         <v>2.0799999999999999E-2</v>
       </c>
-      <c r="G27" s="2">
-        <v>4.8599999999999997E-2</v>
-      </c>
-      <c r="H27" s="2">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="I27" s="15">
+      <c r="I27" s="11">
+        <v>2.98E-2</v>
+      </c>
+      <c r="J27">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="J27" s="29">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="K27" s="9">
+      <c r="K27" s="36">
         <f t="shared" si="5"/>
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>9</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28" s="28">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="23">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="E28" s="2">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="E28" s="1">
+        <v>2.01E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2.5899999999999999E-2</v>
+      </c>
+      <c r="G28" s="1">
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="H28" s="2">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="I28" s="15">
-        <v>2.01E-2</v>
-      </c>
-      <c r="J28" s="30">
+      <c r="H28" s="1">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="I28" s="11">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="K28" s="9">
+      <c r="J28" s="33">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="K28" s="37">
         <f t="shared" si="5"/>
         <v>6.3299999999999995E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="13">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="9">
         <f t="shared" ref="D29:I29" si="6">SUMPRODUCT(--(D20:D28=$K$20:$K$28))</f>
-        <v>5</v>
-      </c>
-      <c r="E29" s="13">
+        <v>4</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G29" s="9">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="F29" s="13">
+      <c r="H29" s="9">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G29" s="13">
+      <c r="I29" s="9">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="H29" s="13">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="I29" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="13">
+        <v>6</v>
+      </c>
+      <c r="J29" s="9">
         <f t="array" ref="J29">SUM(IF(J20:J28&gt;=K20:K28,1,0))</f>
         <v>6</v>
       </c>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="2">
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="1">
         <f t="shared" ref="D30:J30" si="7">AVERAGE(D20:D28)</f>
         <v>0.16884444444444446</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <f t="shared" si="7"/>
-        <v>0.20423333333333332</v>
-      </c>
-      <c r="F30" s="2">
+        <v>3.7301111111111118E-2</v>
+      </c>
+      <c r="F30" s="1">
         <f t="shared" si="7"/>
-        <v>0.11313888888888887</v>
-      </c>
-      <c r="G30" s="2">
+        <v>0.1685011111111111</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" si="7"/>
         <v>0.23708888888888893</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="1">
         <f t="shared" si="7"/>
-        <v>0.16743111111111111</v>
-      </c>
-      <c r="I30" s="2">
+        <v>0.1129911111111111</v>
+      </c>
+      <c r="I30" s="1">
         <f t="shared" si="7"/>
-        <v>3.7293333333333338E-2</v>
-      </c>
-      <c r="J30" s="2">
+        <v>0.2525</v>
+      </c>
+      <c r="J30" s="1">
         <f t="shared" si="7"/>
         <v>0.26350655555555558</v>
       </c>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="2">
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="1">
         <f t="shared" ref="D31:J31" si="8">STDEV(D20:D28)</f>
         <v>0.17636922287569845</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <f t="shared" si="8"/>
-        <v>0.34086803531572163</v>
-      </c>
-      <c r="F31" s="2">
+        <v>4.8404935297044975E-2</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="8"/>
-        <v>0.15283417847821579</v>
-      </c>
-      <c r="G31" s="2">
+        <v>0.34652186656993395</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="8"/>
         <v>0.35754133832483076</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <f t="shared" si="8"/>
-        <v>0.34704513713796814</v>
-      </c>
-      <c r="I31" s="2">
+        <v>0.15293730974196945</v>
+      </c>
+      <c r="I31" s="1">
         <f t="shared" si="8"/>
-        <v>4.8411247660022153E-2</v>
-      </c>
-      <c r="J31" s="15">
+        <v>0.33045367300122419</v>
+      </c>
+      <c r="J31" s="11">
         <f t="shared" si="8"/>
         <v>0.33006317836404869</v>
       </c>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="17">
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="13">
         <f t="array" ref="D32">AVERAGE(($D$20:$D$28-D20:D28)/D20:D28)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="13">
         <f t="array" ref="E32">AVERAGE(($D$20:$D$28-E20:E28)/E20:E28)</f>
-        <v>2.0715378035698677</v>
-      </c>
-      <c r="F32" s="17">
+        <v>9.6820523865355046</v>
+      </c>
+      <c r="F32" s="13">
         <f t="array" ref="F32">AVERAGE(($D$20:$D$28-F20:F28)/F20:F28)</f>
-        <v>2.6275122121252594</v>
-      </c>
-      <c r="G32" s="17">
+        <v>3.6170601821549875</v>
+      </c>
+      <c r="G32" s="13">
         <f t="array" ref="G32">AVERAGE(($D$20:$D$28-G20:G28)/G20:G28)</f>
         <v>0.42755764667545865</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="13">
         <f t="array" ref="H32">AVERAGE(($D$20:$D$28-H20:H28)/H20:H28)</f>
-        <v>3.8580421925339814</v>
-      </c>
-      <c r="I32" s="17">
+        <v>2.601291714417143</v>
+      </c>
+      <c r="I32" s="13">
         <f t="array" ref="I32">AVERAGE(($D$20:$D$28-I20:I28)/I20:I28)</f>
-        <v>9.770320247970723</v>
-      </c>
-      <c r="J32" s="17">
+        <v>0.31119860515462827</v>
+      </c>
+      <c r="J32" s="13">
         <f t="array" ref="J32">AVERAGE(($D$20:$D$28-J20:J28)/J20:J28)</f>
         <v>27.302084814290172</v>
       </c>
-      <c r="K32" s="16"/>
+      <c r="K32" s="12"/>
     </row>
     <row r="33" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="19">
+      <c r="B33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="15">
         <f t="shared" ref="D33:J33" si="9">($D$30-D30)/D30</f>
         <v>0</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="15">
         <f t="shared" si="9"/>
-        <v>-0.1732767531690331</v>
-      </c>
-      <c r="F33" s="19">
+        <v>3.5265258705430278</v>
+      </c>
+      <c r="F33" s="15">
         <f t="shared" si="9"/>
-        <v>0.49236435060152262</v>
-      </c>
-      <c r="G33" s="19">
+        <v>2.0375731119479986E-3</v>
+      </c>
+      <c r="G33" s="15">
         <f t="shared" si="9"/>
         <v>-0.28784328428156347</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="15">
         <f t="shared" si="9"/>
-        <v>8.4412826502443111E-3</v>
-      </c>
-      <c r="I33" s="19">
+        <v>0.49431617039688508</v>
+      </c>
+      <c r="I33" s="15">
         <f t="shared" si="9"/>
-        <v>3.5274699082350134</v>
-      </c>
-      <c r="J33" s="19">
+        <v>-0.33130913091309122</v>
+      </c>
+      <c r="J33" s="15">
         <f t="shared" si="9"/>
         <v>-0.35924006107374934</v>
       </c>
-      <c r="K33" s="21"/>
+      <c r="K33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="6">
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
   </mergeCells>
   <conditionalFormatting sqref="D34:I38 D15:J17 D29:J29 D32:J33 J12 D3:I12 P3:P11 D20:I28">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>AND(D3&lt;&gt;0,D3=$K3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C28">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="lessThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:I12 K12">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>AND(D12&lt;&gt;0,D12=$K13)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C11">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1988,252 +2034,650 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0337F3DF-FF3D-BF46-B4BD-2CDEE980B061}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39" t="s">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="3" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="K3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="P4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="C3">
-        <v>0.503</v>
-      </c>
-      <c r="D3" s="1">
-        <f>(C3-B3)/B3</f>
-        <v>-3.4548944337811929E-2</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G10" si="0">(F3-E3)/E3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="C4">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D10" si="1">(C4-B4)/B4</f>
-        <v>1.2787723785166251E-2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3.1699999999999999E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2.7699999999999999E-2</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="R4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E5" s="45">
+        <v>1.41E-3</v>
+      </c>
+      <c r="F5" s="45">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="G5" s="45">
+        <v>8.9800000000000001E-3</v>
+      </c>
+      <c r="H5" s="45">
+        <v>2.81E-3</v>
+      </c>
+      <c r="I5" s="46">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="45">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="N5" s="45">
+        <v>1.31E-3</v>
+      </c>
+      <c r="O5" s="45">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="P5" s="45">
+        <v>9.41E-3</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>2.8700000000000002E-3</v>
+      </c>
+      <c r="R5" s="46">
+        <v>2.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="E6" s="45">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F6" s="45">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="G6" s="45">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H6" s="45">
+        <v>3.2100000000000002E-3</v>
+      </c>
+      <c r="I6" s="46">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="45">
+        <v>1.84</v>
+      </c>
+      <c r="N6" s="45">
+        <v>2.0300000000000001E-3</v>
+      </c>
+      <c r="O6" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="P6" s="45">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="Q6" s="45">
+        <v>3.2799999999999999E-3</v>
+      </c>
+      <c r="R6" s="46">
+        <v>3.39E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="45">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="E7" s="45">
+        <v>1.98E-3</v>
+      </c>
+      <c r="F7" s="45">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="G7" s="45">
+        <v>1.89E-2</v>
+      </c>
+      <c r="H7" s="45">
+        <v>3.6800000000000001E-3</v>
+      </c>
+      <c r="I7" s="46">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="45">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="N7" s="45">
+        <v>1.97E-3</v>
+      </c>
+      <c r="O7" s="45">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="P7" s="45">
+        <v>1.83E-2</v>
+      </c>
+      <c r="Q7" s="45">
+        <v>3.3899999999999998E-3</v>
+      </c>
+      <c r="R7" s="46">
+        <v>3.4500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="48">
+        <v>1.24</v>
+      </c>
+      <c r="E8" s="45">
+        <v>2.1800000000000001E-3</v>
+      </c>
+      <c r="F8" s="45">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="G8" s="48">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="H8" s="45">
+        <v>3.7299999999999998E-3</v>
+      </c>
+      <c r="I8" s="46">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="48">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="N8" s="45">
+        <v>2.33E-3</v>
+      </c>
+      <c r="O8" s="45">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="P8" s="48">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="Q8" s="45">
+        <v>4.0299999999999997E-3</v>
+      </c>
+      <c r="R8" s="46">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="45">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="E9" s="45">
+        <v>1.56E-3</v>
+      </c>
+      <c r="F9" s="45">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="G9" s="45">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="H9" s="45">
+        <v>3.6900000000000001E-3</v>
+      </c>
+      <c r="I9" s="46">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="45">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="N9" s="45">
+        <v>3.1900000000000001E-3</v>
+      </c>
+      <c r="O9" s="45">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="P9" s="45">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="Q9" s="45">
+        <v>4.1799999999999997E-3</v>
+      </c>
+      <c r="R9" s="46">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="45">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E10" s="45">
+        <v>6.0600000000000003E-3</v>
+      </c>
+      <c r="F10" s="45">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="G10" s="45">
+        <v>3.56E-2</v>
+      </c>
+      <c r="H10" s="45">
+        <v>4.0099999999999997E-3</v>
+      </c>
+      <c r="I10" s="46">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="45">
+        <v>4.41</v>
+      </c>
+      <c r="N10" s="45">
+        <v>6.3899999999999998E-3</v>
+      </c>
+      <c r="O10" s="45">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="P10" s="45">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="Q10" s="45">
+        <v>4.2599999999999999E-3</v>
+      </c>
+      <c r="R10" s="46">
+        <v>7.8899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="45">
+        <v>4.58</v>
+      </c>
+      <c r="E11" s="45">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="F11" s="45">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="G11" s="45">
+        <v>4.53E-2</v>
+      </c>
+      <c r="H11" s="45">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="I11" s="46">
+        <v>6.1800000000000001E-2</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="45">
+        <v>8.98</v>
+      </c>
+      <c r="N11" s="45">
+        <v>2.81E-3</v>
+      </c>
+      <c r="O11" s="45">
+        <v>8.72E-2</v>
+      </c>
+      <c r="P11" s="45">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="Q11" s="45">
+        <v>4.6299999999999996E-3</v>
+      </c>
+      <c r="R11" s="46">
+        <v>6.9400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="45">
+        <v>1.43</v>
+      </c>
+      <c r="E12" s="45">
+        <v>2.7699999999999999E-3</v>
+      </c>
+      <c r="F12" s="45">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="G12" s="45">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="H12" s="45">
+        <v>4.4299999999999999E-3</v>
+      </c>
+      <c r="I12" s="46">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="45">
+        <v>4.43</v>
+      </c>
+      <c r="N12" s="45">
+        <v>2.9299999999999999E-3</v>
+      </c>
+      <c r="O12" s="45">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="P12" s="45">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="Q12" s="45">
+        <v>4.7299999999999998E-3</v>
+      </c>
+      <c r="R12" s="46">
+        <v>6.2100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="51">
+        <v>64.7</v>
+      </c>
+      <c r="E13" s="51">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F13" s="51">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="G13" s="51">
+        <v>0.252</v>
+      </c>
+      <c r="H13" s="51">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="I13" s="52">
+        <v>0.24</v>
+      </c>
+      <c r="K13" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="51">
+        <v>1234</v>
+      </c>
+      <c r="N13" s="51">
+        <v>2.12E-2</v>
+      </c>
+      <c r="O13" s="51">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="P13" s="51">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="Q13" s="51">
+        <v>3.04E-2</v>
+      </c>
+      <c r="R13" s="52">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="45">
+        <f>AVERAGE(D5:D13)</f>
+        <v>8.3885555555555555</v>
+      </c>
+      <c r="E14" s="45">
+        <f t="shared" ref="E14:I14" si="0">AVERAGE(E5:E13)</f>
+        <v>4.6788888888888887E-3</v>
+      </c>
+      <c r="F14" s="45">
         <f t="shared" si="0"/>
-        <v>-0.12618296529968456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="C5">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="1"/>
-        <v>-4.3956043956043991E-3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="G5" s="1">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="G14" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="C6">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>-3.1746031746031585E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="F6" s="2">
-        <v>7.7100000000000002E-2</v>
-      </c>
-      <c r="G6" s="1">
+        <v>5.4442222222222218E-2</v>
+      </c>
+      <c r="H14" s="45">
         <f t="shared" si="0"/>
-        <v>-0.34102564102564104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>0.629</v>
-      </c>
-      <c r="C7">
-        <v>0.629</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G7" s="1">
+        <v>5.0622222222222223E-3</v>
+      </c>
+      <c r="I14" s="46">
         <f t="shared" si="0"/>
-        <v>0.51933701657458575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>0.504</v>
-      </c>
-      <c r="C8">
-        <v>0.504</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="C9">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="C10">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="1"/>
-        <v>3.9408866995073788E-2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2">
-        <f>AVERAGE(B3:B10)</f>
-        <v>0.49487500000000001</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" ref="C11:E11" si="2">AVERAGE(C3:C10)</f>
-        <v>0.49275000000000008</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>-2.3117487124009843E-3</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.16393750000000001</v>
-      </c>
-      <c r="F11" s="2">
-        <f>AVERAGE(F3:F10)</f>
-        <v>0.18195</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" ref="G11" si="3">AVERAGE(G3:G10)</f>
-        <v>6.5160512811575227E-3</v>
+        <v>6.8933333333333346E-2</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="38"/>
+      <c r="M14" s="45">
+        <f>AVERAGE(M5:M13)</f>
+        <v>139.68811111111111</v>
+      </c>
+      <c r="N14" s="45">
+        <f t="shared" ref="N14" si="1">AVERAGE(N5:N13)</f>
+        <v>4.9066666666666668E-3</v>
+      </c>
+      <c r="O14" s="45">
+        <f t="shared" ref="O14" si="2">AVERAGE(O5:O13)</f>
+        <v>9.8022222222222219E-2</v>
+      </c>
+      <c r="P14" s="45">
+        <f t="shared" ref="P14" si="3">AVERAGE(P5:P13)</f>
+        <v>5.7445555555555555E-2</v>
+      </c>
+      <c r="Q14" s="45">
+        <f t="shared" ref="Q14" si="4">AVERAGE(Q5:Q13)</f>
+        <v>6.8633333333333324E-3</v>
+      </c>
+      <c r="R14" s="46">
+        <f t="shared" ref="R14" si="5">AVERAGE(R5:R13)</f>
+        <v>7.5544444444444442E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51">
+        <f>STDEV(D5:D13)</f>
+        <v>21.162050757849009</v>
+      </c>
+      <c r="E15" s="51">
+        <f t="shared" ref="E15:I15" si="6">STDEV(E5:E13)</f>
+        <v>6.3848011802335007E-3</v>
+      </c>
+      <c r="F15" s="51">
+        <f t="shared" si="6"/>
+        <v>8.8011391308171011E-2</v>
+      </c>
+      <c r="G15" s="51">
+        <f t="shared" si="6"/>
+        <v>7.5248521875479021E-2</v>
+      </c>
+      <c r="H15" s="51">
+        <f t="shared" si="6"/>
+        <v>4.0920923064423215E-3</v>
+      </c>
+      <c r="I15" s="52">
+        <f t="shared" si="6"/>
+        <v>6.5718870958043685E-2</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51">
+        <f>STDEV(M5:M13)</f>
+        <v>410.37622111985371</v>
+      </c>
+      <c r="N15" s="51">
+        <f t="shared" ref="N15:R15" si="7">STDEV(N5:N13)</f>
+        <v>6.2789091409256757E-3</v>
+      </c>
+      <c r="O15" s="51">
+        <f t="shared" si="7"/>
+        <v>9.6242983871264329E-2</v>
+      </c>
+      <c r="P15" s="51">
+        <f t="shared" si="7"/>
+        <v>8.1209160060782423E-2</v>
+      </c>
+      <c r="Q15" s="51">
+        <f t="shared" si="7"/>
+        <v>8.8485168248695796E-3</v>
+      </c>
+      <c r="R15" s="52">
+        <f t="shared" si="7"/>
+        <v>7.4260506177764363E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2241,6 +2685,26 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
   </mergeCells>
+  <conditionalFormatting sqref="C5:C11 C13">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L11 L13">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>